--- a/TOBE_메뉴구조도_20221007_v0.72.xlsx
+++ b/TOBE_메뉴구조도_20221007_v0.72.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\의전관리시스템\Work\산출물\01_설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eujun_tong_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A031EBC-0324-497B-AEEE-66B7964577F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴(IA)구성" sheetId="6" r:id="rId1"/>
@@ -993,7 +992,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1764,6 +1763,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1781,138 +1786,132 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="123">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="표준 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="표준 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="표준 2 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="표준 2 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="표준 2 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="표준 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="표준 3 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="표준 3 10 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="표준 3 10 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="표준 3 11" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="표준 3 11 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="표준 3 11 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="표준 3 12" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="표준 3 12 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="표준 3 12 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="표준 3 13" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="표준 3 14" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="표준 3 14 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="표준 3 14 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="표준 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="표준 3 2 10" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="표준 3 2 10 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="표준 3 2 10 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="표준 3 2 11" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="표준 3 2 11 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="표준 3 2 11 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="표준 3 2 12" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="표준 3 2 13" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="표준 3 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="표준 3 2 2 10" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="표준 3 2 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="표준 3 2 2 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="표준 3 2 2 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="표준 3 2 2 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="표준 3 2 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="표준 3 2 2 3 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="표준 3 2 2 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="표준 3 2 2 4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="표준 3 2 2 4 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="표준 3 2 2 5" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="표준 3 2 2 5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="표준 3 2 2 5 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="표준 3 2 2 6" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="표준 3 2 2 6 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="표준 3 2 2 6 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="표준 3 2 2 7" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="표준 3 2 2 7 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="표준 3 2 2 7 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="표준 3 2 2 8" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="표준 3 2 2 8 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="표준 3 2 2 8 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="표준 3 2 2 9" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="표준 3 2 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="표준 3 2 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="표준 3 2 3 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="표준 3 2 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="표준 3 2 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="표준 3 2 4 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="표준 3 2 5" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="표준 3 2 5 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="표준 3 2 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="표준 3 2 6" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="표준 3 2 6 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="표준 3 2 6 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="표준 3 2 7" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="표준 3 2 7 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="표준 3 2 7 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="표준 3 2 8" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="표준 3 2 8 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="표준 3 2 8 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="표준 3 2 9" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="표준 3 2 9 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="표준 3 2 9 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="표준 3 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="표준 3 3 10" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="표준 3 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="표준 3 3 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="표준 3 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="표준 3 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="표준 3 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="표준 3 3 3 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="표준 3 3 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="표준 3 3 4 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="표준 3 3 4 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="표준 3 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="표준 3 3 5 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="표준 3 3 5 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="표준 3 3 6" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="표준 3 3 6 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="표준 3 3 6 3" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="표준 3 3 7" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="표준 3 3 7 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="표준 3 3 7 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="표준 3 3 8" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="표준 3 3 8 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="표준 3 3 8 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="표준 3 3 9" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="표준 3 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="표준 3 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="표준 3 4 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="표준 3 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="표준 3 5 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="표준 3 5 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="표준 3 6" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="표준 3 6 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="표준 3 6 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="표준 3 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="표준 3 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="표준 3 7 3" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="표준 3 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="표준 3 8 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="표준 3 8 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="표준 3 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="표준 3 9 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="표준 3 9 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="표준 4" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="표준 5" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="표준 6" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="하이퍼링크 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2 2" xfId="2"/>
+    <cellStyle name="표준 2 3" xfId="3"/>
+    <cellStyle name="표준 2 4" xfId="4"/>
+    <cellStyle name="표준 2 5" xfId="5"/>
+    <cellStyle name="표준 2 6" xfId="6"/>
+    <cellStyle name="표준 2 7" xfId="7"/>
+    <cellStyle name="표준 2 8" xfId="8"/>
+    <cellStyle name="표준 3" xfId="9"/>
+    <cellStyle name="표준 3 10" xfId="10"/>
+    <cellStyle name="표준 3 10 2" xfId="11"/>
+    <cellStyle name="표준 3 10 3" xfId="12"/>
+    <cellStyle name="표준 3 11" xfId="13"/>
+    <cellStyle name="표준 3 11 2" xfId="14"/>
+    <cellStyle name="표준 3 11 3" xfId="15"/>
+    <cellStyle name="표준 3 12" xfId="16"/>
+    <cellStyle name="표준 3 12 2" xfId="17"/>
+    <cellStyle name="표준 3 12 3" xfId="18"/>
+    <cellStyle name="표준 3 13" xfId="19"/>
+    <cellStyle name="표준 3 14" xfId="20"/>
+    <cellStyle name="표준 3 14 2" xfId="21"/>
+    <cellStyle name="표준 3 14 3" xfId="22"/>
+    <cellStyle name="표준 3 2" xfId="23"/>
+    <cellStyle name="표준 3 2 10" xfId="24"/>
+    <cellStyle name="표준 3 2 10 2" xfId="25"/>
+    <cellStyle name="표준 3 2 10 3" xfId="26"/>
+    <cellStyle name="표준 3 2 11" xfId="27"/>
+    <cellStyle name="표준 3 2 11 2" xfId="28"/>
+    <cellStyle name="표준 3 2 11 3" xfId="29"/>
+    <cellStyle name="표준 3 2 12" xfId="30"/>
+    <cellStyle name="표준 3 2 13" xfId="31"/>
+    <cellStyle name="표준 3 2 2" xfId="32"/>
+    <cellStyle name="표준 3 2 2 10" xfId="33"/>
+    <cellStyle name="표준 3 2 2 2" xfId="34"/>
+    <cellStyle name="표준 3 2 2 2 2" xfId="35"/>
+    <cellStyle name="표준 3 2 2 2 3" xfId="36"/>
+    <cellStyle name="표준 3 2 2 3" xfId="37"/>
+    <cellStyle name="표준 3 2 2 3 2" xfId="38"/>
+    <cellStyle name="표준 3 2 2 3 3" xfId="39"/>
+    <cellStyle name="표준 3 2 2 4" xfId="40"/>
+    <cellStyle name="표준 3 2 2 4 2" xfId="41"/>
+    <cellStyle name="표준 3 2 2 4 3" xfId="42"/>
+    <cellStyle name="표준 3 2 2 5" xfId="43"/>
+    <cellStyle name="표준 3 2 2 5 2" xfId="44"/>
+    <cellStyle name="표준 3 2 2 5 3" xfId="45"/>
+    <cellStyle name="표준 3 2 2 6" xfId="46"/>
+    <cellStyle name="표준 3 2 2 6 2" xfId="47"/>
+    <cellStyle name="표준 3 2 2 6 3" xfId="48"/>
+    <cellStyle name="표준 3 2 2 7" xfId="49"/>
+    <cellStyle name="표준 3 2 2 7 2" xfId="50"/>
+    <cellStyle name="표준 3 2 2 7 3" xfId="51"/>
+    <cellStyle name="표준 3 2 2 8" xfId="52"/>
+    <cellStyle name="표준 3 2 2 8 2" xfId="53"/>
+    <cellStyle name="표준 3 2 2 8 3" xfId="54"/>
+    <cellStyle name="표준 3 2 2 9" xfId="55"/>
+    <cellStyle name="표준 3 2 3" xfId="56"/>
+    <cellStyle name="표준 3 2 3 2" xfId="57"/>
+    <cellStyle name="표준 3 2 3 3" xfId="58"/>
+    <cellStyle name="표준 3 2 4" xfId="59"/>
+    <cellStyle name="표준 3 2 4 2" xfId="60"/>
+    <cellStyle name="표준 3 2 4 3" xfId="61"/>
+    <cellStyle name="표준 3 2 5" xfId="62"/>
+    <cellStyle name="표준 3 2 5 2" xfId="63"/>
+    <cellStyle name="표준 3 2 5 3" xfId="64"/>
+    <cellStyle name="표준 3 2 6" xfId="65"/>
+    <cellStyle name="표준 3 2 6 2" xfId="66"/>
+    <cellStyle name="표준 3 2 6 3" xfId="67"/>
+    <cellStyle name="표준 3 2 7" xfId="68"/>
+    <cellStyle name="표준 3 2 7 2" xfId="69"/>
+    <cellStyle name="표준 3 2 7 3" xfId="70"/>
+    <cellStyle name="표준 3 2 8" xfId="71"/>
+    <cellStyle name="표준 3 2 8 2" xfId="72"/>
+    <cellStyle name="표준 3 2 8 3" xfId="73"/>
+    <cellStyle name="표준 3 2 9" xfId="74"/>
+    <cellStyle name="표준 3 2 9 2" xfId="75"/>
+    <cellStyle name="표준 3 2 9 3" xfId="76"/>
+    <cellStyle name="표준 3 3" xfId="77"/>
+    <cellStyle name="표준 3 3 10" xfId="78"/>
+    <cellStyle name="표준 3 3 2" xfId="79"/>
+    <cellStyle name="표준 3 3 2 2" xfId="80"/>
+    <cellStyle name="표준 3 3 2 3" xfId="81"/>
+    <cellStyle name="표준 3 3 3" xfId="82"/>
+    <cellStyle name="표준 3 3 3 2" xfId="83"/>
+    <cellStyle name="표준 3 3 3 3" xfId="84"/>
+    <cellStyle name="표준 3 3 4" xfId="85"/>
+    <cellStyle name="표준 3 3 4 2" xfId="86"/>
+    <cellStyle name="표준 3 3 4 3" xfId="87"/>
+    <cellStyle name="표준 3 3 5" xfId="88"/>
+    <cellStyle name="표준 3 3 5 2" xfId="89"/>
+    <cellStyle name="표준 3 3 5 3" xfId="90"/>
+    <cellStyle name="표준 3 3 6" xfId="91"/>
+    <cellStyle name="표준 3 3 6 2" xfId="92"/>
+    <cellStyle name="표준 3 3 6 3" xfId="93"/>
+    <cellStyle name="표준 3 3 7" xfId="94"/>
+    <cellStyle name="표준 3 3 7 2" xfId="95"/>
+    <cellStyle name="표준 3 3 7 3" xfId="96"/>
+    <cellStyle name="표준 3 3 8" xfId="97"/>
+    <cellStyle name="표준 3 3 8 2" xfId="98"/>
+    <cellStyle name="표준 3 3 8 3" xfId="99"/>
+    <cellStyle name="표준 3 3 9" xfId="100"/>
+    <cellStyle name="표준 3 4" xfId="101"/>
+    <cellStyle name="표준 3 4 2" xfId="102"/>
+    <cellStyle name="표준 3 4 3" xfId="103"/>
+    <cellStyle name="표준 3 5" xfId="104"/>
+    <cellStyle name="표준 3 5 2" xfId="105"/>
+    <cellStyle name="표준 3 5 3" xfId="106"/>
+    <cellStyle name="표준 3 6" xfId="107"/>
+    <cellStyle name="표준 3 6 2" xfId="108"/>
+    <cellStyle name="표준 3 6 3" xfId="109"/>
+    <cellStyle name="표준 3 7" xfId="110"/>
+    <cellStyle name="표준 3 7 2" xfId="111"/>
+    <cellStyle name="표준 3 7 3" xfId="112"/>
+    <cellStyle name="표준 3 8" xfId="113"/>
+    <cellStyle name="표준 3 8 2" xfId="114"/>
+    <cellStyle name="표준 3 8 3" xfId="115"/>
+    <cellStyle name="표준 3 9" xfId="116"/>
+    <cellStyle name="표준 3 9 2" xfId="117"/>
+    <cellStyle name="표준 3 9 3" xfId="118"/>
+    <cellStyle name="표준 4" xfId="119"/>
+    <cellStyle name="표준 5" xfId="120"/>
+    <cellStyle name="표준 6" xfId="121"/>
+    <cellStyle name="하이퍼링크 2" xfId="122"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2071,23 +2070,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2123,23 +2105,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2315,20 +2280,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="51" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0.625" style="51" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="51" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0.25" style="51" customWidth="1"/>
     <col min="5" max="5" width="19.125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="51" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="59" style="22" customWidth="1"/>
@@ -3336,10 +3301,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="67" t="s">
         <v>160</v>
       </c>
       <c r="C35" s="38" t="s">
@@ -4513,7 +4478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4688,26 +4653,26 @@
       <c r="G9" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
